--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -549,10 +549,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N2">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O2">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P2">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q2">
-        <v>436.5236027106782</v>
+        <v>1084.214450385288</v>
       </c>
       <c r="R2">
-        <v>3928.712424396104</v>
+        <v>9757.930053467595</v>
       </c>
       <c r="S2">
-        <v>0.6190005898350383</v>
+        <v>0.7873144654050228</v>
       </c>
       <c r="T2">
-        <v>0.6190005898350381</v>
+        <v>0.7873144654050227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>4.450001</v>
       </c>
       <c r="O3">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P3">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q3">
         <v>11.14694842159833</v>
@@ -641,10 +641,10 @@
         <v>100.322535794385</v>
       </c>
       <c r="S3">
-        <v>0.01580663131382456</v>
+        <v>0.008094481432459553</v>
       </c>
       <c r="T3">
-        <v>0.01580663131382455</v>
+        <v>0.008094481432459551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,40 +673,40 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N4">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O4">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P4">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q4">
-        <v>2.108556289596667</v>
+        <v>3.874821181738333</v>
       </c>
       <c r="R4">
-        <v>18.97700660637</v>
+        <v>34.873390635645</v>
       </c>
       <c r="S4">
-        <v>0.002989981707417052</v>
+        <v>0.002813744795742458</v>
       </c>
       <c r="T4">
-        <v>0.002989981707417052</v>
+        <v>0.002813744795742458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N5">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O5">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P5">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q5">
-        <v>231.3068905540683</v>
+        <v>225.4623338907683</v>
       </c>
       <c r="R5">
-        <v>2081.762014986615</v>
+        <v>2029.161005016915</v>
       </c>
       <c r="S5">
-        <v>0.3279985338634119</v>
+        <v>0.1637219987365957</v>
       </c>
       <c r="T5">
-        <v>0.3279985338634118</v>
+        <v>0.1637219987365957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N6">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O6">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P6">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q6">
-        <v>13.864578845945</v>
+        <v>16.45561503372167</v>
       </c>
       <c r="R6">
-        <v>124.781209613505</v>
+        <v>148.100535303495</v>
       </c>
       <c r="S6">
-        <v>0.01966029426624727</v>
+        <v>0.01194942914529635</v>
       </c>
       <c r="T6">
-        <v>0.01966029426624727</v>
+        <v>0.01194942914529635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>22.544385</v>
       </c>
       <c r="I7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N7">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O7">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P7">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q7">
-        <v>4.718837867368333</v>
+        <v>5.199090881296667</v>
       </c>
       <c r="R7">
-        <v>42.469540806315</v>
+        <v>46.79181793167</v>
       </c>
       <c r="S7">
-        <v>0.006691421506417113</v>
+        <v>0.003775378068744246</v>
       </c>
       <c r="T7">
-        <v>0.006691421506417113</v>
+        <v>0.003775378068744245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H8">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I8">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J8">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N8">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O8">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P8">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q8">
-        <v>3.454952507192888</v>
+        <v>24.764047015658</v>
       </c>
       <c r="R8">
-        <v>31.09457256473599</v>
+        <v>222.876423140922</v>
       </c>
       <c r="S8">
-        <v>0.004899202761372535</v>
+        <v>0.01798269007618291</v>
       </c>
       <c r="T8">
-        <v>0.004899202761372535</v>
+        <v>0.01798269007618291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H9">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I9">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J9">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.450001</v>
       </c>
       <c r="O9">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P9">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q9">
-        <v>0.0882247309368889</v>
+        <v>0.254602357214</v>
       </c>
       <c r="R9">
-        <v>0.7940225784320001</v>
+        <v>2.291421214926</v>
       </c>
       <c r="S9">
-        <v>0.000125104714038034</v>
+        <v>0.0001848823530156475</v>
       </c>
       <c r="T9">
-        <v>0.000125104714038034</v>
+        <v>0.0001848823530156475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H10">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I10">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J10">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N10">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O10">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P10">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q10">
-        <v>0.01668858635377778</v>
+        <v>0.08850302067799999</v>
       </c>
       <c r="R10">
-        <v>0.150197277184</v>
+        <v>0.796527186102</v>
       </c>
       <c r="S10">
-        <v>2.36648023895014E-05</v>
+        <v>6.426745962209574E-05</v>
       </c>
       <c r="T10">
-        <v>2.36648023895014E-05</v>
+        <v>6.426745962209574E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H11">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I11">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J11">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N11">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O11">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P11">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q11">
-        <v>1.830724195640889</v>
+        <v>5.149682182106</v>
       </c>
       <c r="R11">
-        <v>16.476517760768</v>
+        <v>46.347139638954</v>
       </c>
       <c r="S11">
-        <v>0.002596009356401441</v>
+        <v>0.003739499388492536</v>
       </c>
       <c r="T11">
-        <v>0.002596009356401441</v>
+        <v>0.003739499388492536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H12">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I12">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J12">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N12">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O12">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P12">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q12">
-        <v>0.1097339551573333</v>
+        <v>0.375855186418</v>
       </c>
       <c r="R12">
-        <v>0.987605596416</v>
+        <v>3.382696677762</v>
       </c>
       <c r="S12">
-        <v>0.0001556052926932818</v>
+        <v>0.0002729314528682361</v>
       </c>
       <c r="T12">
-        <v>0.0001556052926932818</v>
+        <v>0.0002729314528682361</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H13">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I13">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J13">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N13">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O13">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P13">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q13">
-        <v>0.03734817686755556</v>
+        <v>0.118750059988</v>
       </c>
       <c r="R13">
-        <v>0.336133591808</v>
+        <v>1.068750539892</v>
       </c>
       <c r="S13">
-        <v>5.296058074917628E-05</v>
+        <v>8.623168595755438E-05</v>
       </c>
       <c r="T13">
-        <v>5.296058074917628E-05</v>
+        <v>8.623168595755437E-05</v>
       </c>
     </row>
   </sheetData>
